--- a/SPORT REPORT.xlsx
+++ b/SPORT REPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_PROJECTs\48_csvLogToExcel\csvLogToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D46EC01-11A7-448A-81A5-DF4432E9EFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD8C1B-1A0E-4F74-A92F-19B828DCCC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,23 +906,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -938,21 +931,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="22">
     <dxf>
       <font>
         <b/>
@@ -974,14 +974,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF1155CC"/>
           <bgColor rgb="FF1155CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1151,16 +1143,16 @@
   </dxfs>
   <tableStyles count="3">
     <tableStyle name="REPORT-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
     <tableStyle name="COMM AND PC-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="secondRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="DEPOSIT &amp; WITHDRAWAL-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+      <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1382,7 +1374,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG4" sqref="AG4"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1437,40 +1429,40 @@
       <c r="K1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="140" t="s">
+      <c r="L1" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="141" t="s">
+      <c r="M1" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="142" t="s">
+      <c r="N1" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="143" t="s">
+      <c r="O1" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="144" t="s">
+      <c r="P1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="145" t="s">
+      <c r="Q1" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="132" t="s">
+      <c r="R1" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="135" t="s">
+      <c r="S1" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="138" t="s">
+      <c r="T1" s="145" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="148" t="s">
+      <c r="V1" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="149" t="s">
+      <c r="W1" s="132" t="s">
         <v>20</v>
       </c>
       <c r="X1" s="8" t="s">
@@ -1526,18 +1518,18 @@
         <v>33</v>
       </c>
       <c r="K2" s="123"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="133"/>
       <c r="X2" s="75"/>
       <c r="Y2" s="93"/>
       <c r="Z2" s="23"/>
@@ -1563,18 +1555,18 @@
       <c r="I3" s="34"/>
       <c r="J3" s="35"/>
       <c r="K3" s="124"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="134"/>
       <c r="X3" s="82"/>
       <c r="Y3" s="95"/>
       <c r="Z3" s="37"/>
@@ -2302,15 +2294,9 @@
       <c r="I15" s="120"/>
       <c r="J15" s="129"/>
       <c r="K15" s="128"/>
-      <c r="L15" s="115">
-        <v>1</v>
-      </c>
-      <c r="M15" s="116">
-        <v>0</v>
-      </c>
-      <c r="N15" s="106">
-        <v>6</v>
-      </c>
+      <c r="L15" s="115"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="106"/>
       <c r="O15" s="107"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="81"/>
@@ -29117,72 +29103,72 @@
     <mergeCell ref="V1:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="AC4:AC727">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="b">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="b">
       <formula>NOT(ISERROR(SEARCH(("b"),(AC4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AC727">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="l">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="l">
       <formula>NOT(ISERROR(SEARCH(("l"),(AC4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA727">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA727">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="INCRE">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="INCRE">
       <formula>NOT(ISERROR(SEARCH(("INCRE"),(AA1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA727">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="DECR">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="DECR">
       <formula>NOT(ISERROR(SEARCH(("DECR"),(AA1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA727">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="CLO">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="CLO">
       <formula>NOT(ISERROR(SEARCH(("CLO"),(AA1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AI3 AF4:AI727">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AI3 AF4:AI727">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA727">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="FINA">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="FINA">
       <formula>NOT(ISERROR(SEARCH(("FINA"),(AA1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H727 R4:R727 T4:T727 N4:N727 P4:P727 L4:L727">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
       <formula>I1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I727 S4:S727 U4:U727 O4:O727 Q4:Q727 M4:M727">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
       <formula>H1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V727">
-    <cfRule type="expression" dxfId="5" priority="20">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>IF(X4="A",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W727">
-    <cfRule type="expression" dxfId="4" priority="21">
+    <cfRule type="expression" dxfId="3" priority="21">
       <formula>IF(X4="B",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A727">
-    <cfRule type="timePeriod" dxfId="3" priority="22" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="2" priority="22" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29196,7 +29182,7 @@
       <formula>NOT(ISERROR(SEARCH(("uk"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="E4:E727" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"BAGNA,KEVIN,KITO,BAGNA KEVIN,BAGNA KITO,KEVIN KITO,BAGNA KEVIN KITO,BAGNA KEVIN"</formula1>
     </dataValidation>
@@ -29209,31 +29195,10 @@
     <dataValidation type="list" allowBlank="1" sqref="AB4:AB727" xr:uid="{00000000-0002-0000-0400-000006000000}">
       <formula1>"A,B,C"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F4:F727 AA4:AA727 D4:D727" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F4:F727</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:D727</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>AA4:AA727</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/SPORT REPORT.xlsx
+++ b/SPORT REPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_PROJECTs\48_csvLogToExcel\csvLogToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD8C1B-1A0E-4F74-A92F-19B828DCCC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE638E-7E3B-4992-BE1A-F43D6EF12C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1374,7 +1374,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15.8" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SPORT REPORT.xlsx
+++ b/SPORT REPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_PROJECTs\48_csvLogToExcel\csvLogToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE638E-7E3B-4992-BE1A-F43D6EF12C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB56B3A-15C1-452A-B3AD-76A5700E6AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1374,7 +1374,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomRight" activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2372,7 +2372,9 @@
       <c r="X16" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="118"/>
+      <c r="Y16" s="118">
+        <v>1</v>
+      </c>
       <c r="Z16" s="89">
         <v>0.67493055555555559</v>
       </c>
@@ -2449,7 +2451,9 @@
       <c r="X17" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="Y17" s="112"/>
+      <c r="Y17" s="112">
+        <v>2</v>
+      </c>
       <c r="Z17" s="76">
         <v>0.67692129629629638</v>
       </c>
@@ -2522,7 +2526,9 @@
       <c r="X18" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="Y18" s="118"/>
+      <c r="Y18" s="118">
+        <v>3</v>
+      </c>
       <c r="Z18" s="89">
         <v>0.67762731481481486</v>
       </c>
@@ -2587,7 +2593,9 @@
       <c r="X19" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="112"/>
+      <c r="Y19" s="112">
+        <v>4</v>
+      </c>
       <c r="Z19" s="76">
         <v>0.6803703703703704</v>
       </c>
@@ -2695,7 +2703,9 @@
       <c r="X21" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="Y21" s="112"/>
+      <c r="Y21" s="112">
+        <v>1</v>
+      </c>
       <c r="Z21" s="76">
         <v>0.88703703703703696</v>
       </c>
@@ -2768,7 +2778,9 @@
       <c r="X22" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="Y22" s="118"/>
+      <c r="Y22" s="118">
+        <v>2</v>
+      </c>
       <c r="Z22" s="89">
         <v>0.88771990740740747</v>
       </c>
@@ -2837,7 +2849,9 @@
       <c r="X23" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="Y23" s="112"/>
+      <c r="Y23" s="112">
+        <v>3</v>
+      </c>
       <c r="Z23" s="76">
         <v>0.90035879629629623</v>
       </c>
@@ -2939,7 +2953,9 @@
       <c r="X25" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="Y25" s="112"/>
+      <c r="Y25" s="112">
+        <v>1</v>
+      </c>
       <c r="Z25" s="76">
         <v>0.6135532407407408</v>
       </c>
@@ -3012,7 +3028,9 @@
       <c r="X26" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="Y26" s="118"/>
+      <c r="Y26" s="118">
+        <v>2</v>
+      </c>
       <c r="Z26" s="89">
         <v>0.65424768518518517</v>
       </c>
@@ -3128,7 +3146,9 @@
       <c r="X28" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="Y28" s="118"/>
+      <c r="Y28" s="118">
+        <v>1</v>
+      </c>
       <c r="Z28" s="89">
         <v>0.61628472222222219</v>
       </c>
@@ -3205,7 +3225,9 @@
       <c r="X29" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="Y29" s="112"/>
+      <c r="Y29" s="112">
+        <v>2</v>
+      </c>
       <c r="Z29" s="76">
         <v>0.63493055555555555</v>
       </c>
@@ -3274,7 +3296,9 @@
       <c r="X30" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="Y30" s="118"/>
+      <c r="Y30" s="118">
+        <v>3</v>
+      </c>
       <c r="Z30" s="89">
         <v>0.66467592592592595</v>
       </c>
